--- a/06-03-2023/data/output/xlsx/Causality for Text-to-Final correct/1.xlsx
+++ b/06-03-2023/data/output/xlsx/Causality for Text-to-Final correct/1.xlsx
@@ -49,159 +49,156 @@
     <t>Causality</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_unknowns__1,pairs_of_parentheses__0</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_unknowns__1,pairs_of_parentheses__0</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_unknowns__2,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_unknowns__1,pairs_of_parentheses__0</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_unknowns__2,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_unknowns__1,pairs_of_parentheses__0</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_unknowns__2,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__12</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_unknowns__1,pairs_of_parentheses__0</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_unknowns__2,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__13</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_unknowns__1,pairs_of_parentheses__0</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_unknowns__2,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__14</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_unknowns__1,pairs_of_parentheses__0</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_unknowns__2,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__15</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_unknowns__1,pairs_of_parentheses__0</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_unknowns__2,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__16</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_unknowns__2,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__17</t>
+  </si>
+  <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__17</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
-    <t>num_of_decimals__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__19</t>
   </si>
   <si>
     <t>num_of_decimals__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__2,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_decimals__2</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
+  </si>
+  <si>
     <t>num_of_decimals__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
     <t>num_of_decimals__4</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
+  </si>
+  <si>
     <t>num_of_decimals__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
     <t>num_of_decimals__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__7,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__7,num_of_decimals__8,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_decimals__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__6,num_of_decimals__8,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_decimals__8</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
+  </si>
+  <si>
     <t>num_of_decimals__9</t>
   </si>
   <si>
@@ -265,90 +262,90 @@
     <t>num_of_decimals__29</t>
   </si>
   <si>
-    <t>num_of_equals__0</t>
+    <t>num_of_decimals__30</t>
   </si>
   <si>
     <t>num_of_equals__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
     <t>num_of_equals__2</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
+  </si>
+  <si>
     <t>num_of_equals__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
     <t>num_of_equals__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__2,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_equals__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__2,num_of_equals__4,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_equals__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_equals__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_equals__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_equals__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_equals__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_equals__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_unknowns__1,pairs_of_parentheses__0</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_equals__12</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_unknowns__2,pairs_of_parentheses__1</t>
+  </si>
+  <si>
     <t>num_of_equals__13</t>
   </si>
   <si>
-    <t>num_of_mults_and_divs__0</t>
+    <t>num_of_equals__14</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__2</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__3</t>
   </si>
   <si>
@@ -382,18 +379,18 @@
     <t>num_of_mults_and_divs__13</t>
   </si>
   <si>
-    <t>num_of_unknowns__0</t>
+    <t>num_of_mults_and_divs__14</t>
   </si>
   <si>
     <t>num_of_unknowns__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
     <t>num_of_unknowns__2</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
+  </si>
+  <si>
     <t>num_of_unknowns__3</t>
   </si>
   <si>
@@ -424,33 +421,33 @@
     <t>num_of_unknowns__12</t>
   </si>
   <si>
-    <t>pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_unknowns__13</t>
   </si>
   <si>
     <t>pairs_of_parentheses__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>pairs_of_parentheses__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>pairs_of_parentheses__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>pairs_of_parentheses__4</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__5</t>
   </si>
   <si>
@@ -479,6 +476,9 @@
   </si>
   <si>
     <t>pairs_of_parentheses__14</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>
